--- a/legendre_out/DATA/p2/p2IntegrandDataPoints0.700000.xlsx
+++ b/legendre_out/DATA/p2/p2IntegrandDataPoints0.700000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C222"/>
+  <dimension ref="A1:C220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.424536350759639</v>
+        <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>7.736272748146556e-29</v>
+        <v>7.164655289336605e-29</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.42877843536789</v>
+        <v>3.43865949305135</v>
       </c>
       <c r="C3" t="n">
-        <v>1.117366230635763e-28</v>
+        <v>1.037971657608412e-28</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.430466699343294</v>
+        <v>3.440287767951486</v>
       </c>
       <c r="C4" t="n">
-        <v>1.288927907773216e-28</v>
+        <v>1.207218849366868e-28</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.433920356105163</v>
+        <v>3.443801413788623</v>
       </c>
       <c r="C5" t="n">
-        <v>1.759331362542063e-28</v>
+        <v>1.60377885658007e-28</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.435737168099</v>
+        <v>3.445601086046668</v>
       </c>
       <c r="C6" t="n">
-        <v>1.816623003109778e-28</v>
+        <v>1.662992388899325e-28</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.436542735681173</v>
+        <v>3.446372374157259</v>
       </c>
       <c r="C7" t="n">
-        <v>1.817214440993855e-28</v>
+        <v>1.653930967183012e-28</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.440861949100481</v>
+        <v>3.450743006783942</v>
       </c>
       <c r="C8" t="n">
-        <v>1.93117864622861e-28</v>
+        <v>1.762372866623018e-28</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.444324175730245</v>
+        <v>3.454170953942123</v>
       </c>
       <c r="C9" t="n">
-        <v>1.797639789002083e-28</v>
+        <v>1.633861660990473e-28</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.445018335029777</v>
+        <v>3.454856543373759</v>
       </c>
       <c r="C10" t="n">
-        <v>1.620000356254876e-28</v>
+        <v>1.474923156218559e-28</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.44940610739225</v>
+        <v>3.459227176000442</v>
       </c>
       <c r="C11" t="n">
-        <v>1.495841924737973e-28</v>
+        <v>1.365954690976349e-28</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.453639622132605</v>
+        <v>3.463512109948169</v>
       </c>
       <c r="C12" t="n">
-        <v>1.198238391471792e-28</v>
+        <v>1.089945932526338e-28</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.45806167396666</v>
+        <v>3.467882742574851</v>
       </c>
       <c r="C13" t="n">
-        <v>8.45567318185677e-29</v>
+        <v>7.745470070600487e-29</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.676516176489705</v>
+        <v>3.686414373908955</v>
       </c>
       <c r="C14" t="n">
-        <v>1.974600703275305e-30</v>
+        <v>1.796061331543594e-30</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.677433152354519</v>
+        <v>3.687271360698501</v>
       </c>
       <c r="C15" t="n">
-        <v>2.65961958988093e-30</v>
+        <v>2.428924151466214e-30</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.679207115008878</v>
+        <v>3.689071032956547</v>
       </c>
       <c r="C16" t="n">
-        <v>3.018874784520133e-30</v>
+        <v>2.758470761343461e-30</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.680072671666319</v>
+        <v>3.689928019746092</v>
       </c>
       <c r="C17" t="n">
-        <v>3.497143312250798e-30</v>
+        <v>3.212066072775663e-30</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.680886809116387</v>
+        <v>3.690699307856684</v>
       </c>
       <c r="C18" t="n">
-        <v>4.176714624595066e-30</v>
+        <v>3.817722894411624e-30</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.681743795905933</v>
+        <v>3.691641993325183</v>
       </c>
       <c r="C19" t="n">
-        <v>4.578574479069318e-30</v>
+        <v>4.219862914687492e-30</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.682660771770746</v>
+        <v>3.692498980114729</v>
       </c>
       <c r="C20" t="n">
-        <v>6.895828149198093e-30</v>
+        <v>6.29902447533286e-30</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.683397780409756</v>
+        <v>3.693270268225319</v>
       </c>
       <c r="C21" t="n">
-        <v>1.944995262047389e-29</v>
+        <v>1.780861028218597e-29</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.684263337067197</v>
+        <v>3.694127255014865</v>
       </c>
       <c r="C22" t="n">
-        <v>3.00662716996569e-29</v>
+        <v>2.774635361076201e-29</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.685943031174706</v>
+        <v>3.695841228593956</v>
       </c>
       <c r="C23" t="n">
-        <v>4.400508437209829e-29</v>
+        <v>4.041494705662234e-29</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.687699854093274</v>
+        <v>3.697555202173048</v>
       </c>
       <c r="C24" t="n">
-        <v>4.339151679899077e-29</v>
+        <v>3.979841795073914e-29</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.689525235955006</v>
+        <v>3.699354874431093</v>
       </c>
       <c r="C25" t="n">
-        <v>3.900715555609888e-29</v>
+        <v>3.592996889155733e-29</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.691256349269888</v>
+        <v>3.701068848010184</v>
       </c>
       <c r="C26" t="n">
-        <v>3.611825142019447e-29</v>
+        <v>3.320900407682221e-29</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.693013172188456</v>
+        <v>3.70286852026823</v>
       </c>
       <c r="C27" t="n">
-        <v>3.524062752465549e-29</v>
+        <v>3.240420083458264e-29</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.693578783469556</v>
+        <v>3.703468411020912</v>
       </c>
       <c r="C28" t="n">
-        <v>3.54646659995193e-29</v>
+        <v>3.259790635181986e-29</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.694615737484906</v>
+        <v>3.704496795168366</v>
       </c>
       <c r="C29" t="n">
-        <v>3.360956817485837e-29</v>
+        <v>3.091221899916893e-29</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.696278291856625</v>
+        <v>3.706125070068503</v>
       </c>
       <c r="C30" t="n">
-        <v>3.302926491525536e-29</v>
+        <v>3.039394493311537e-29</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.698009405171506</v>
+        <v>3.707839043647593</v>
       </c>
       <c r="C31" t="n">
-        <v>3.180766524153278e-29</v>
+        <v>2.942328667955402e-29</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.699783367825865</v>
+        <v>3.709638715905639</v>
       </c>
       <c r="C32" t="n">
-        <v>3.025829972313398e-29</v>
+        <v>2.774736256822483e-29</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.70147163180127</v>
+        <v>3.71135268948473</v>
       </c>
       <c r="C33" t="n">
-        <v>2.883772696224987e-29</v>
+        <v>2.633157719801487e-29</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.703177035512466</v>
+        <v>3.713066663063821</v>
       </c>
       <c r="C34" t="n">
-        <v>2.586242860681872e-29</v>
+        <v>2.385495321421222e-29</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.704736751469439</v>
+        <v>3.714609239285003</v>
       </c>
       <c r="C35" t="n">
-        <v>2.29102665340544e-29</v>
+        <v>2.116486528604399e-29</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.706647832010125</v>
+        <v>3.716494610222004</v>
       </c>
       <c r="C36" t="n">
-        <v>1.807576836255008e-29</v>
+        <v>1.667829520097387e-29</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.708276106910262</v>
+        <v>3.718122885122139</v>
       </c>
       <c r="C37" t="n">
-        <v>1.410683527057696e-29</v>
+        <v>1.295527541360936e-29</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.709964370885666</v>
+        <v>3.719836858701231</v>
       </c>
       <c r="C38" t="n">
-        <v>9.171991162350037e-30</v>
+        <v>8.473382514761372e-30</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3.710855637146794</v>
+        <v>3.720693845490776</v>
       </c>
       <c r="C39" t="n">
-        <v>1.289989147703173e-29</v>
+        <v>1.18241629617005e-29</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>3.711772613011608</v>
+        <v>3.721636530959276</v>
       </c>
       <c r="C40" t="n">
-        <v>6.313007063222282e-30</v>
+        <v>5.819944140470532e-30</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3.713529435930176</v>
+        <v>3.723350504538367</v>
       </c>
       <c r="C41" t="n">
-        <v>4.216565248378111e-30</v>
+        <v>3.845157795540259e-30</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3.715166280698207</v>
+        <v>3.725064478117458</v>
       </c>
       <c r="C42" t="n">
-        <v>3.110339055631068e-30</v>
+        <v>2.857705512094025e-30</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3.719356946099085</v>
+        <v>3.729178014707276</v>
       </c>
       <c r="C43" t="n">
-        <v>1.781664807366565e-30</v>
+        <v>1.622109724855974e-30</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3.723504762160485</v>
+        <v>3.73337724997605</v>
       </c>
       <c r="C44" t="n">
-        <v>1.467172354558773e-30</v>
+        <v>1.344152855448077e-30</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>3.727875394787168</v>
+        <v>3.737747882602732</v>
       </c>
       <c r="C45" t="n">
-        <v>1.320520523661926e-30</v>
+        <v>1.194645460106622e-30</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>3.745075119653346</v>
+        <v>3.754973317072596</v>
       </c>
       <c r="C46" t="n">
-        <v>1.096206085411949e-30</v>
+        <v>9.865635146025924e-31</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3.762300554123211</v>
+        <v>3.772113052863507</v>
       </c>
       <c r="C47" t="n">
-        <v>1.045280699714362e-30</v>
+        <v>9.490163647826759e-31</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3.779337451499375</v>
+        <v>3.789167089975462</v>
       </c>
       <c r="C48" t="n">
-        <v>1.091996459672698e-30</v>
+        <v>9.906646673717833e-31</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3.788087286620635</v>
+        <v>3.797908355228826</v>
       </c>
       <c r="C49" t="n">
-        <v>1.371476769570506e-30</v>
+        <v>1.2443045262473e-30</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3.796605735308717</v>
+        <v>3.806478223124282</v>
       </c>
       <c r="C50" t="n">
-        <v>1.499396819319359e-30</v>
+        <v>1.357524388039434e-30</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>3.805055625053636</v>
+        <v>3.814876693661827</v>
       </c>
       <c r="C51" t="n">
-        <v>2.453688624803017e-30</v>
+        <v>2.224078012516619e-30</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>3.813539794270136</v>
+        <v>3.823360862878328</v>
       </c>
       <c r="C52" t="n">
-        <v>3.355846469644936e-30</v>
+        <v>3.039090136362533e-30</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>3.817867577557342</v>
+        <v>3.82773149550501</v>
       </c>
       <c r="C53" t="n">
-        <v>7.324109714964322e-30</v>
+        <v>6.629375496211568e-30</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3.82226391978771</v>
+        <v>3.832102128131692</v>
       </c>
       <c r="C54" t="n">
-        <v>1.019508676821989e-29</v>
+        <v>9.235347170827345e-30</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>3.830696669796837</v>
+        <v>3.840586297348192</v>
       </c>
       <c r="C55" t="n">
-        <v>9.37019002498326e-30</v>
+        <v>8.479475208466274e-30</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>3.837569703848993</v>
+        <v>3.847442191664556</v>
       </c>
       <c r="C56" t="n">
-        <v>6.173649175985986e-30</v>
+        <v>5.590690338488897e-30</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>3.844554146183789</v>
+        <v>3.854383784659876</v>
       </c>
       <c r="C57" t="n">
-        <v>2.616366547473191e-30</v>
+        <v>2.372188699459718e-30</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>3.846319538970252</v>
+        <v>3.856183456917921</v>
       </c>
       <c r="C58" t="n">
-        <v>1.872113232994109e-30</v>
+        <v>1.694861987981989e-30</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>3.847930674134597</v>
+        <v>3.857811731818057</v>
       </c>
       <c r="C59" t="n">
-        <v>2.432899613441384e-30</v>
+        <v>2.202805471352335e-30</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>3.84977319573212</v>
+        <v>3.859611404076103</v>
       </c>
       <c r="C60" t="n">
-        <v>9.10508448762686e-31</v>
+        <v>8.257591003832155e-31</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>3.852147049139162</v>
+        <v>3.86201096708683</v>
       </c>
       <c r="C61" t="n">
-        <v>5.855968139579673e-31</v>
+        <v>5.312561763365962e-31</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>3.856414843351097</v>
+        <v>3.866295901034558</v>
       </c>
       <c r="C62" t="n">
-        <v>3.090551907972211e-31</v>
+        <v>2.814754136133707e-31</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>3.865190388076044</v>
+        <v>3.875037166287922</v>
       </c>
       <c r="C63" t="n">
-        <v>2.029121102327362e-31</v>
+        <v>1.831634301629714e-31</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>3.866878652051449</v>
+        <v>3.876751139867013</v>
       </c>
       <c r="C64" t="n">
-        <v>4.391047047979509e-31</v>
+        <v>4.000642570127896e-31</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>3.869363913741131</v>
+        <v>3.879236401556695</v>
       </c>
       <c r="C65" t="n">
-        <v>1.238782793898688e-30</v>
+        <v>1.139069996070976e-30</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>3.873640277820963</v>
+        <v>3.883521335504422</v>
       </c>
       <c r="C66" t="n">
-        <v>2.032200871658711e-30</v>
+        <v>1.852826751759053e-30</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>3.878070899522913</v>
+        <v>3.887891968131104</v>
       </c>
       <c r="C67" t="n">
-        <v>3.435829118460355e-30</v>
+        <v>3.141863241905478e-30</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>3.881644534435317</v>
+        <v>3.891491312647195</v>
       </c>
       <c r="C68" t="n">
-        <v>3.246579965651651e-30</v>
+        <v>2.965010721504389e-30</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>3.88648650979625</v>
+        <v>3.896376137347605</v>
       </c>
       <c r="C69" t="n">
-        <v>5.224937688188554e-30</v>
+        <v>4.752911628236736e-30</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>3.890925701366096</v>
+        <v>3.900746769974288</v>
       </c>
       <c r="C70" t="n">
-        <v>5.394744783708588e-30</v>
+        <v>4.912690000655593e-30</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>3.899118495074151</v>
+        <v>3.908973843153924</v>
       </c>
       <c r="C71" t="n">
-        <v>6.119592046154765e-30</v>
+        <v>5.549806038527207e-30</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>3.908014017949633</v>
+        <v>3.917886505765197</v>
       </c>
       <c r="C72" t="n">
-        <v>8.021789878247135e-30</v>
+        <v>7.259481326254264e-30</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>3.916541036505611</v>
+        <v>3.926370674981698</v>
       </c>
       <c r="C73" t="n">
-        <v>6.443165943732006e-30</v>
+        <v>5.830163222187821e-30</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>3.925025205722112</v>
+        <v>3.934854844198199</v>
       </c>
       <c r="C74" t="n">
-        <v>2.855272818991556e-30</v>
+        <v>2.588530911228436e-30</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>3.933637922957044</v>
+        <v>3.943510410772608</v>
       </c>
       <c r="C75" t="n">
-        <v>1.331602985048696e-30</v>
+        <v>1.203408389458789e-30</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>3.942370618342513</v>
+        <v>3.952251676025972</v>
       </c>
       <c r="C76" t="n">
-        <v>9.282844821828993e-31</v>
+        <v>8.439198493372906e-31</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>3.950700529936895</v>
+        <v>3.960564447884564</v>
       </c>
       <c r="C77" t="n">
-        <v>1.822383786622344e-30</v>
+        <v>1.663706218408824e-30</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>3.959476074661841</v>
+        <v>3.969305713137928</v>
       </c>
       <c r="C78" t="n">
-        <v>1.771389177793958e-30</v>
+        <v>1.622553908883046e-30</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>3.967797416388328</v>
+        <v>3.977618484996519</v>
       </c>
       <c r="C79" t="n">
-        <v>1.120615927808632e-30</v>
+        <v>1.029922546674622e-30</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3.97227945729765</v>
+        <v>3.982160514981111</v>
       </c>
       <c r="C80" t="n">
-        <v>5.536251007348357e-31</v>
+        <v>5.070938586900397e-31</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>3.976384424019573</v>
+        <v>3.986274051570929</v>
       </c>
       <c r="C81" t="n">
-        <v>3.05985033237548e-31</v>
+        <v>2.798682961878507e-31</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>3.984954291915029</v>
+        <v>3.994843919466384</v>
       </c>
       <c r="C82" t="n">
-        <v>2.216164562658529e-31</v>
+        <v>2.01026281294019e-31</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.002231145592266</v>
+        <v>4.012069353936249</v>
       </c>
       <c r="C83" t="n">
-        <v>8.769134600876342e-32</v>
+        <v>7.963356478143308e-32</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.010826723091408</v>
+        <v>4.020724920510658</v>
       </c>
       <c r="C84" t="n">
-        <v>4.007052141967629e-32</v>
+        <v>3.635730674325514e-32</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.019208053893163</v>
+        <v>4.02903769236925</v>
       </c>
       <c r="C85" t="n">
-        <v>2.660069456927211e-32</v>
+        <v>2.4220768250992e-32</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.036424918495132</v>
+        <v>4.046263126839114</v>
       </c>
       <c r="C86" t="n">
-        <v>1.61221072605125e-32</v>
+        <v>1.460203558830606e-32</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.053547514550251</v>
+        <v>4.063402862630025</v>
       </c>
       <c r="C87" t="n">
-        <v>1.127912377573764e-32</v>
+        <v>1.024576275092091e-32</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.070687250341162</v>
+        <v>4.080542598420934</v>
       </c>
       <c r="C88" t="n">
-        <v>1.156721264656234e-32</v>
+        <v>1.049185436581328e-32</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.075126441911007</v>
+        <v>4.084998929726572</v>
       </c>
       <c r="C89" t="n">
-        <v>1.940729545484259e-32</v>
+        <v>1.752035274553042e-32</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.078297293032326</v>
+        <v>4.08816978084789</v>
       </c>
       <c r="C90" t="n">
-        <v>2.077473653391019e-32</v>
+        <v>1.891419113128233e-32</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.087861265603653</v>
+        <v>4.097682334211846</v>
       </c>
       <c r="C91" t="n">
-        <v>2.165548542658605e-32</v>
+        <v>1.97329117226402e-32</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.09212905981559</v>
+        <v>4.101967268159573</v>
       </c>
       <c r="C92" t="n">
-        <v>3.063970471606503e-32</v>
+        <v>2.789544832226748e-32</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.096551111649645</v>
+        <v>4.106423599465209</v>
       </c>
       <c r="C93" t="n">
-        <v>5.971195903529957e-32</v>
+        <v>5.505093119854541e-32</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.105069560337727</v>
+        <v>4.114907768681709</v>
       </c>
       <c r="C94" t="n">
-        <v>6.552257602844034e-32</v>
+        <v>5.966569847718537e-32</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.113468030875272</v>
+        <v>4.123306239219255</v>
       </c>
       <c r="C95" t="n">
-        <v>4.731625486455048e-32</v>
+        <v>4.299563280960764e-32</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.122132167317578</v>
+        <v>4.131961805793665</v>
       </c>
       <c r="C96" t="n">
-        <v>1.973423996234754e-32</v>
+        <v>1.792428853072697e-32</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.12395754917931</v>
+        <v>4.133847176730665</v>
       </c>
       <c r="C97" t="n">
-        <v>9.162851263898796e-33</v>
+        <v>8.346431059376298e-33</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.126622778094797</v>
+        <v>4.136503835778257</v>
       </c>
       <c r="C98" t="n">
-        <v>5.444883909413588e-33</v>
+        <v>4.945621360131908e-33</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.13072774481672</v>
+        <v>4.140617372368075</v>
       </c>
       <c r="C99" t="n">
-        <v>2.797770864825536e-33</v>
+        <v>2.540465121865929e-33</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.139151924957952</v>
+        <v>4.149015842905621</v>
       </c>
       <c r="C100" t="n">
-        <v>1.593998620324154e-33</v>
+        <v>1.433693025180324e-33</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.156411638899399</v>
+        <v>4.166241277375486</v>
       </c>
       <c r="C101" t="n">
-        <v>8.204809039751421e-34</v>
+        <v>7.457275840909848e-34</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.170346244097408</v>
+        <v>4.180210162045077</v>
       </c>
       <c r="C102" t="n">
-        <v>6.313192377016928e-34</v>
+        <v>5.739698715257355e-34</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.190571132330683</v>
+        <v>4.200435050278351</v>
       </c>
       <c r="C103" t="n">
-        <v>5.526549923646772e-34</v>
+        <v>4.980397698655151e-34</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.199158139961929</v>
+        <v>4.209004918173807</v>
       </c>
       <c r="C104" t="n">
-        <v>8.990478893396691e-34</v>
+        <v>8.17170355240995e-34</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.207916544951084</v>
+        <v>4.21774618342717</v>
       </c>
       <c r="C105" t="n">
-        <v>1.11567995726308e-33</v>
+        <v>1.011249897456337e-33</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.216340725092316</v>
+        <v>4.226230352643671</v>
       </c>
       <c r="C106" t="n">
-        <v>1.242322467084456e-33</v>
+        <v>1.124912611440593e-33</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.221645473319603</v>
+        <v>4.231543670738853</v>
       </c>
       <c r="C107" t="n">
-        <v>1.159598859256986e-33</v>
+        <v>1.047346680807243e-33</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.225107699949367</v>
+        <v>4.234971617897036</v>
       </c>
       <c r="C108" t="n">
-        <v>1.109573405385368e-33</v>
+        <v>1.001928528869582e-33</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.230875221043007</v>
+        <v>4.24071342938699</v>
       </c>
       <c r="C109" t="n">
-        <v>9.673246124912041e-34</v>
+        <v>8.755111262465879e-34</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.23929940118424</v>
+        <v>4.249111899924536</v>
       </c>
       <c r="C110" t="n">
-        <v>8.71559019296527e-34</v>
+        <v>7.884981792930877e-34</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.24231599468344</v>
+        <v>4.2521970523669</v>
       </c>
       <c r="C111" t="n">
-        <v>8.39390557575144e-34</v>
+        <v>7.601433505602061e-34</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.24787783894759</v>
+        <v>4.257767466498946</v>
       </c>
       <c r="C112" t="n">
-        <v>8.114880360189898e-34</v>
+        <v>7.328833891560304e-34</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.252257041442167</v>
+        <v>4.262138099125628</v>
       </c>
       <c r="C113" t="n">
-        <v>7.886577237187887e-34</v>
+        <v>7.135787914405679e-34</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.25472516339606</v>
+        <v>4.264537662136355</v>
       </c>
       <c r="C114" t="n">
-        <v>8.115612551691372e-34</v>
+        <v>7.333104478061203e-34</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.25739896217944</v>
+        <v>4.267280019862901</v>
       </c>
       <c r="C115" t="n">
-        <v>7.840925848855359e-34</v>
+        <v>7.098302951227866e-34</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.259258623512755</v>
+        <v>4.269079692120946</v>
       </c>
       <c r="C116" t="n">
-        <v>7.763500904074569e-34</v>
+        <v>7.077821790924426e-34</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.2616239070519</v>
+        <v>4.271479255131674</v>
       </c>
       <c r="C117" t="n">
-        <v>7.31830773846167e-34</v>
+        <v>6.620343875347785e-34</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.263192192876769</v>
+        <v>4.273021831352856</v>
       </c>
       <c r="C118" t="n">
-        <v>7.09957076470765e-34</v>
+        <v>6.44292009763166e-34</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.271830619715387</v>
+        <v>4.281677397927266</v>
       </c>
       <c r="C119" t="n">
-        <v>5.130063888454419e-34</v>
+        <v>4.64794220609649e-34</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.27642406890735</v>
+        <v>4.286305126590811</v>
       </c>
       <c r="C120" t="n">
-        <v>4.649254687210943e-34</v>
+        <v>4.230778217138243e-34</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.28036620813926</v>
+        <v>4.29024726582272</v>
       </c>
       <c r="C121" t="n">
-        <v>3.507055570242216e-34</v>
+        <v>3.158646257460967e-34</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.28891036643103</v>
+        <v>4.298731435039221</v>
       </c>
       <c r="C122" t="n">
-        <v>2.437339510954692e-34</v>
+        <v>2.203679715650136e-34</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.293495245755098</v>
+        <v>4.303359163702766</v>
       </c>
       <c r="C123" t="n">
-        <v>2.397507339158017e-34</v>
+        <v>2.171312370718931e-34</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.297651631684394</v>
+        <v>4.307472700292585</v>
       </c>
       <c r="C124" t="n">
-        <v>2.835565107110854e-34</v>
+        <v>2.57324072968277e-34</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.300136893374075</v>
+        <v>4.309957961982268</v>
       </c>
       <c r="C125" t="n">
-        <v>3.707603125475225e-34</v>
+        <v>3.362192014200004e-34</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.300239731788821</v>
+        <v>4.310129359340176</v>
       </c>
       <c r="C126" t="n">
-        <v>3.582167868295268e-34</v>
+        <v>3.240037806150396e-34</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.30191942589633</v>
+        <v>4.311757634240313</v>
       </c>
       <c r="C127" t="n">
-        <v>5.605734374714722e-34</v>
+        <v>5.094257637881723e-34</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.306187220108267</v>
+        <v>4.31604256818804</v>
       </c>
       <c r="C128" t="n">
-        <v>9.650113040028683e-34</v>
+        <v>8.779010340857815e-34</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.308783890080591</v>
+        <v>4.318613528556677</v>
       </c>
       <c r="C129" t="n">
-        <v>1.011894631345879e-33</v>
+        <v>9.217538258225026e-34</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.310729250092858</v>
+        <v>4.320584598172632</v>
       </c>
       <c r="C130" t="n">
-        <v>1.030678659886869e-33</v>
+        <v>9.34961497945245e-34</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.31302597468884</v>
+        <v>4.322898462504404</v>
       </c>
       <c r="C131" t="n">
-        <v>1.136050267803654e-33</v>
+        <v>1.026626438213629e-33</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.315699773472222</v>
+        <v>4.325555121551995</v>
       </c>
       <c r="C132" t="n">
-        <v>1.236897732317138e-33</v>
+        <v>1.123965969992589e-33</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.318107906350845</v>
+        <v>4.327954684562723</v>
       </c>
       <c r="C133" t="n">
-        <v>1.252390384193526e-33</v>
+        <v>1.136177736565447e-33</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.320910253152659</v>
+        <v>4.330782740968223</v>
       </c>
       <c r="C134" t="n">
-        <v>1.156112306516564e-33</v>
+        <v>1.0480064072543e-33</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.323318386031281</v>
+        <v>4.33318230397895</v>
       </c>
       <c r="C135" t="n">
-        <v>1.010838838427338e-33</v>
+        <v>9.189053664653261e-34</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.327757577601127</v>
+        <v>4.337638635284587</v>
       </c>
       <c r="C136" t="n">
-        <v>7.523050469297615e-34</v>
+        <v>6.843486180036912e-34</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.331931103266214</v>
+        <v>4.341752171874406</v>
       </c>
       <c r="C137" t="n">
-        <v>4.945047288028952e-34</v>
+        <v>4.54790614711101e-34</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.340535250633251</v>
+        <v>4.350407738448815</v>
       </c>
       <c r="C138" t="n">
-        <v>2.95034796446499e-34</v>
+        <v>2.671043408211536e-34</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.344845894184665</v>
+        <v>4.354692672396543</v>
       </c>
       <c r="C139" t="n">
-        <v>2.234267394002516e-34</v>
+        <v>2.018537651970377e-34</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.348762323812888</v>
+        <v>4.358634811628452</v>
       </c>
       <c r="C140" t="n">
-        <v>1.70820155660415e-34</v>
+        <v>1.545538723906546e-34</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.357083665539375</v>
+        <v>4.366947583487043</v>
       </c>
       <c r="C141" t="n">
-        <v>1.253471322700877e-34</v>
+        <v>1.1394316872931e-34</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.362054188918739</v>
+        <v>4.371918106866407</v>
       </c>
       <c r="C142" t="n">
-        <v>1.289748390061147e-34</v>
+        <v>1.165997187658159e-34</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.365250749643743</v>
+        <v>4.375088957987725</v>
       </c>
       <c r="C143" t="n">
-        <v>4.567254933466631e-34</v>
+        <v>4.156817991928125e-34</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.367855989483961</v>
+        <v>4.377745617035317</v>
       </c>
       <c r="C144" t="n">
-        <v>8.285511360101113e-34</v>
+        <v>7.535155585083643e-34</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.369681371345694</v>
+        <v>4.379545289293363</v>
       </c>
       <c r="C145" t="n">
-        <v>8.931720781306152e-34</v>
+        <v>8.130182063785969e-34</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.370624056814194</v>
+        <v>4.380487974761863</v>
       </c>
       <c r="C146" t="n">
-        <v>9.2484951207955e-34</v>
+        <v>8.433392950665399e-34</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.371001131001594</v>
+        <v>4.380830769477681</v>
       </c>
       <c r="C147" t="n">
-        <v>8.989282545172202e-34</v>
+        <v>8.21244427925237e-34</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.371241087302666</v>
+        <v>4.381087865514544</v>
       </c>
       <c r="C148" t="n">
-        <v>8.958251887956406e-34</v>
+        <v>8.161724623091905e-34</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.37310074863598</v>
+        <v>4.382973236451544</v>
       </c>
       <c r="C149" t="n">
-        <v>1.075450586943627e-33</v>
+        <v>9.785207879659909e-34</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.37479758247928</v>
+        <v>4.384687210030635</v>
       </c>
       <c r="C150" t="n">
-        <v>1.090671736095876e-33</v>
+        <v>9.948014741835854e-34</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.376545835529954</v>
+        <v>4.386401183609727</v>
       </c>
       <c r="C151" t="n">
-        <v>1.060975368343602e-33</v>
+        <v>9.648131288314833e-34</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.378156970694299</v>
+        <v>4.388029458509863</v>
       </c>
       <c r="C152" t="n">
-        <v>1.041733702248844e-33</v>
+        <v>9.518275442223502e-34</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.379236774049127</v>
+        <v>4.389057842657317</v>
       </c>
       <c r="C153" t="n">
-        <v>1.04076216814032e-33</v>
+        <v>9.45636612426903e-34</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.379845234669704</v>
+        <v>4.389743432088954</v>
       </c>
       <c r="C154" t="n">
-        <v>1.01616427515202e-33</v>
+        <v>9.23347403282265e-34</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.382493323849399</v>
+        <v>4.392314392457591</v>
       </c>
       <c r="C155" t="n">
-        <v>9.554748897568474e-34</v>
+        <v>8.69557626239691e-34</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.386743978325545</v>
+        <v>4.396599326405318</v>
       </c>
       <c r="C156" t="n">
-        <v>7.43332938884878e-34</v>
+        <v>6.771027402834083e-34</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.391003202669586</v>
+        <v>4.400884260353045</v>
       </c>
       <c r="C157" t="n">
-        <v>5.107518728930083e-34</v>
+        <v>4.64694356496812e-34</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.395073889919927</v>
+        <v>4.404912098263909</v>
       </c>
       <c r="C158" t="n">
-        <v>3.487714871365538e-34</v>
+        <v>3.164754749311012e-34</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.396290811161082</v>
+        <v>4.406111879769273</v>
       </c>
       <c r="C159" t="n">
-        <v>3.561773754295995e-34</v>
+        <v>3.241636898248955e-34</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.399607350036622</v>
+        <v>4.4094541282485</v>
       </c>
       <c r="C160" t="n">
-        <v>2.599241326038028e-34</v>
+        <v>2.360398622625512e-34</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.403952273059619</v>
+        <v>4.413824760875183</v>
       </c>
       <c r="C161" t="n">
-        <v>2.420114698834734e-34</v>
+        <v>2.196561415407377e-34</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.406326126466659</v>
+        <v>4.41622432388591</v>
       </c>
       <c r="C162" t="n">
-        <v>2.243469775004167e-34</v>
+        <v>2.045487673332641e-34</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.408974215646356</v>
+        <v>4.418795284254546</v>
       </c>
       <c r="C163" t="n">
-        <v>1.981243883324349e-34</v>
+        <v>1.799653388216982e-34</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.411759422712378</v>
+        <v>4.421623340660047</v>
       </c>
       <c r="C164" t="n">
-        <v>1.759609575798022e-34</v>
+        <v>1.601630280929684e-34</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.41349053602726</v>
+        <v>4.423337314239138</v>
       </c>
       <c r="C165" t="n">
-        <v>1.629873103229282e-34</v>
+        <v>1.484479922338061e-34</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.414321813213119</v>
+        <v>4.424194301028683</v>
       </c>
       <c r="C166" t="n">
-        <v>1.541498739988367e-34</v>
+        <v>1.398167233660638e-34</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.419515153157765</v>
+        <v>4.429336221765956</v>
       </c>
       <c r="C167" t="n">
-        <v>1.18713826356547e-34</v>
+        <v>1.083771354796829e-34</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.421511932377406</v>
+        <v>4.431392990060865</v>
       </c>
       <c r="C168" t="n">
-        <v>1.038042686968862e-34</v>
+        <v>9.416205854173663e-35</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.430664551289752</v>
+        <v>4.440477050030048</v>
       </c>
       <c r="C169" t="n">
-        <v>5.684396429669925e-35</v>
+        <v>5.176061390032533e-35</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.447624319854858</v>
+        <v>4.457445388463049</v>
       </c>
       <c r="C170" t="n">
-        <v>3.193443222896542e-35</v>
+        <v>2.886848764331505e-35</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.464926883135782</v>
+        <v>4.474756521611869</v>
       </c>
       <c r="C171" t="n">
-        <v>2.654467477127563e-35</v>
+        <v>2.39069662166925e-35</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.482066618926692</v>
+        <v>4.491896257402779</v>
       </c>
       <c r="C172" t="n">
-        <v>2.680592028494905e-35</v>
+        <v>2.43199014904648e-35</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.490182283823687</v>
+        <v>4.500037631903461</v>
       </c>
       <c r="C173" t="n">
-        <v>3.025982935718047e-35</v>
+        <v>2.758865537603374e-35</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.493233156794469</v>
+        <v>4.503122784345824</v>
       </c>
       <c r="C174" t="n">
-        <v>3.192926761786667e-35</v>
+        <v>2.883330106444744e-35</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.499292053396556</v>
+        <v>4.509121691872643</v>
       </c>
       <c r="C175" t="n">
-        <v>3.961773320521559e-35</v>
+        <v>3.583063700380123e-35</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.507699093801998</v>
+        <v>4.517520162410189</v>
       </c>
       <c r="C176" t="n">
-        <v>5.169755673604142e-35</v>
+        <v>4.692231007774187e-35</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.512069726428679</v>
+        <v>4.521890795036872</v>
       </c>
       <c r="C177" t="n">
-        <v>5.717318147734546e-35</v>
+        <v>5.193296991047983e-35</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.516303241169035</v>
+        <v>4.526175728984599</v>
       </c>
       <c r="C178" t="n">
-        <v>6.519157875658182e-35</v>
+        <v>5.92927080270838e-35</v>
       </c>
     </row>
     <row r="179">
@@ -2330,10 +2330,10 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>4.520571035380971</v>
+        <v>4.530460662932327</v>
       </c>
       <c r="C179" t="n">
-        <v>8.124510424993177e-35</v>
+        <v>7.370895002792e-35</v>
       </c>
     </row>
     <row r="180">
@@ -2341,10 +2341,10 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>4.520622454588343</v>
+        <v>4.534574199522145</v>
       </c>
       <c r="C180" t="n">
-        <v>8.070716623467473e-35</v>
+        <v>1.035553838244548e-34</v>
       </c>
     </row>
     <row r="181">
@@ -2352,10 +2352,10 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>4.524727421310266</v>
+        <v>4.539030530827781</v>
       </c>
       <c r="C181" t="n">
-        <v>1.138331995525685e-34</v>
+        <v>1.236281461824436e-34</v>
       </c>
     </row>
     <row r="182">
@@ -2363,10 +2363,10 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>4.529132333408531</v>
+        <v>4.543486862133419</v>
       </c>
       <c r="C182" t="n">
-        <v>1.355604002773317e-34</v>
+        <v>1.496552809109376e-34</v>
       </c>
     </row>
     <row r="183">
@@ -2374,10 +2374,10 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>4.533597234582063</v>
+        <v>4.545800726465191</v>
       </c>
       <c r="C183" t="n">
-        <v>1.651482403195579e-34</v>
+        <v>1.69413575645848e-34</v>
       </c>
     </row>
     <row r="184">
@@ -2385,10 +2385,10 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>4.535979657856999</v>
+        <v>4.549914263055009</v>
       </c>
       <c r="C184" t="n">
-        <v>1.860033356015108e-34</v>
+        <v>1.542482713640675e-34</v>
       </c>
     </row>
     <row r="185">
@@ -2396,10 +2396,10 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>4.540033205371549</v>
+        <v>4.551628236634101</v>
       </c>
       <c r="C185" t="n">
-        <v>1.69358192840523e-34</v>
+        <v>1.478238595472766e-34</v>
       </c>
     </row>
     <row r="186">
@@ -2407,10 +2407,10 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>4.541790028290118</v>
+        <v>4.553942100965873</v>
       </c>
       <c r="C186" t="n">
-        <v>1.620328770495749e-34</v>
+        <v>1.337441730591945e-34</v>
       </c>
     </row>
     <row r="187">
@@ -2418,10 +2418,10 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>4.54406961315031</v>
+        <v>4.558912624345237</v>
       </c>
       <c r="C187" t="n">
-        <v>1.467058473878895e-34</v>
+        <v>1.069584130459188e-34</v>
       </c>
     </row>
     <row r="188">
@@ -2429,10 +2429,10 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>4.54908298586915</v>
+        <v>4.562940462256101</v>
       </c>
       <c r="C188" t="n">
-        <v>1.174077122253682e-34</v>
+        <v>9.512185386922847e-35</v>
       </c>
     </row>
     <row r="189">
@@ -2440,10 +2440,10 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>4.553067974440538</v>
+        <v>4.56688260148801</v>
       </c>
       <c r="C189" t="n">
-        <v>1.044965441752908e-34</v>
+        <v>7.656344004909572e-35</v>
       </c>
     </row>
     <row r="190">
@@ -2451,10 +2451,10 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>4.557044393144028</v>
+        <v>4.571424631472602</v>
       </c>
       <c r="C190" t="n">
-        <v>8.393985255287771e-35</v>
+        <v>5.653820577534289e-35</v>
       </c>
     </row>
     <row r="191">
@@ -2462,10 +2462,10 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>4.561577853260723</v>
+        <v>4.575623866741375</v>
       </c>
       <c r="C191" t="n">
-        <v>6.203450083376378e-35</v>
+        <v>4.437336854518693e-35</v>
       </c>
     </row>
     <row r="192">
@@ -2473,10 +2473,10 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>4.56575137892581</v>
+        <v>4.580080198047011</v>
       </c>
       <c r="C192" t="n">
-        <v>4.889272353115697e-35</v>
+        <v>3.090786284397966e-35</v>
       </c>
     </row>
     <row r="193">
@@ -2484,10 +2484,10 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>4.570207710231447</v>
+        <v>4.58402233727892</v>
       </c>
       <c r="C193" t="n">
-        <v>3.342829239718987e-35</v>
+        <v>1.980192270945821e-35</v>
       </c>
     </row>
     <row r="194">
@@ -2495,10 +2495,10 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>4.570233419835134</v>
+        <v>4.588478668584557</v>
       </c>
       <c r="C194" t="n">
-        <v>3.448351190812372e-35</v>
+        <v>1.135411021305984e-35</v>
       </c>
     </row>
     <row r="195">
@@ -2506,10 +2506,10 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>4.574141279595461</v>
+        <v>4.588650065942466</v>
       </c>
       <c r="C195" t="n">
-        <v>2.180850396681231e-35</v>
+        <v>1.140235552818302e-35</v>
       </c>
     </row>
     <row r="196">
@@ -2517,10 +2517,10 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>4.578657599976365</v>
+        <v>4.592078013100648</v>
       </c>
       <c r="C196" t="n">
-        <v>1.248799731509076e-35</v>
+        <v>8.140691267090587e-36</v>
       </c>
     </row>
     <row r="197">
@@ -2528,10 +2528,10 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>4.578820427466379</v>
+        <v>4.593277794606012</v>
       </c>
       <c r="C197" t="n">
-        <v>1.259110213998664e-35</v>
+        <v>7.551907336018496e-36</v>
       </c>
     </row>
     <row r="198">
@@ -2539,10 +2539,10 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>4.582256944492457</v>
+        <v>4.593534890642876</v>
       </c>
       <c r="C198" t="n">
-        <v>8.97791075710083e-36</v>
+        <v>7.065630731295972e-36</v>
       </c>
     </row>
     <row r="199">
@@ -2550,10 +2550,10 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>4.583388167054657</v>
+        <v>4.596534344406285</v>
       </c>
       <c r="C199" t="n">
-        <v>8.364432094485318e-36</v>
+        <v>1.135332010485534e-35</v>
       </c>
     </row>
     <row r="200">
@@ -2561,10 +2561,10 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>4.583662402827311</v>
+        <v>4.597819824590603</v>
       </c>
       <c r="C200" t="n">
-        <v>7.805773807284679e-36</v>
+        <v>8.584597540418304e-36</v>
       </c>
     </row>
     <row r="201">
@@ -2572,10 +2572,10 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>4.586636146987034</v>
+        <v>4.601504867785649</v>
       </c>
       <c r="C201" t="n">
-        <v>1.247921074930063e-35</v>
+        <v>1.270774360052222e-35</v>
       </c>
     </row>
     <row r="202">
@@ -2583,10 +2583,10 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>4.58796447651083</v>
+        <v>4.603133142685785</v>
       </c>
       <c r="C202" t="n">
-        <v>9.455968473436562e-36</v>
+        <v>1.174875929917609e-35</v>
       </c>
     </row>
     <row r="203">
@@ -2594,10 +2594,10 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>4.591649519705875</v>
+        <v>4.604932814943831</v>
       </c>
       <c r="C203" t="n">
-        <v>1.400207654322566e-35</v>
+        <v>1.095800969239697e-35</v>
       </c>
     </row>
     <row r="204">
@@ -2605,10 +2605,10 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>4.593303504209699</v>
+        <v>4.606646788522922</v>
       </c>
       <c r="C204" t="n">
-        <v>1.294700612773912e-35</v>
+        <v>1.053729508058201e-35</v>
       </c>
     </row>
     <row r="205">
@@ -2616,10 +2616,10 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>4.595068896996162</v>
+        <v>4.608446460780968</v>
       </c>
       <c r="C205" t="n">
-        <v>1.207851185368102e-35</v>
+        <v>1.000544802407204e-35</v>
       </c>
     </row>
     <row r="206">
@@ -2627,10 +2627,10 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>4.596757160971567</v>
+        <v>4.610160434360059</v>
       </c>
       <c r="C206" t="n">
-        <v>1.163659446455135e-35</v>
+        <v>9.23035746137626e-36</v>
       </c>
     </row>
     <row r="207">
@@ -2638,10 +2638,10 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>4.598633962040672</v>
+        <v>4.611617311902286</v>
       </c>
       <c r="C207" t="n">
-        <v>1.099061829152196e-35</v>
+        <v>9.124600584971917e-36</v>
       </c>
     </row>
     <row r="208">
@@ -2649,10 +2649,10 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>4.600339365751868</v>
+        <v>4.615987944528968</v>
       </c>
       <c r="C208" t="n">
-        <v>1.014024525153575e-35</v>
+        <v>5.0086774104478e-36</v>
       </c>
     </row>
     <row r="209">
@@ -2660,10 +2660,10 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>4.601719114483036</v>
+        <v>4.620529974513559</v>
       </c>
       <c r="C209" t="n">
-        <v>1.005376813172953e-35</v>
+        <v>2.039108809991516e-36</v>
       </c>
     </row>
     <row r="210">
@@ -2671,10 +2671,10 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>4.606132596449195</v>
+        <v>4.622929537524286</v>
       </c>
       <c r="C210" t="n">
-        <v>5.511521458207812e-36</v>
+        <v>1.259654945152385e-36</v>
       </c>
     </row>
     <row r="211">
@@ -2682,10 +2682,10 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>4.610666056565891</v>
+        <v>4.623272332240105</v>
       </c>
       <c r="C211" t="n">
-        <v>2.243181670743819e-36</v>
+        <v>1.753883188112605e-36</v>
       </c>
     </row>
     <row r="212">
@@ -2693,10 +2693,10 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>4.613091329180303</v>
+        <v>4.623786524313832</v>
       </c>
       <c r="C212" t="n">
-        <v>1.392675919295029e-36</v>
+        <v>1.093913042551247e-36</v>
       </c>
     </row>
     <row r="213">
@@ -2704,10 +2704,10 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>4.613451263631914</v>
+        <v>4.625586196571877</v>
       </c>
       <c r="C213" t="n">
-        <v>1.931656472118418e-36</v>
+        <v>8.21173084486852e-37</v>
       </c>
     </row>
     <row r="214">
@@ -2715,10 +2715,10 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>4.613896896762476</v>
+        <v>4.628928445051105</v>
       </c>
       <c r="C214" t="n">
-        <v>1.201042901077585e-36</v>
+        <v>6.763564030700744e-37</v>
       </c>
     </row>
     <row r="215">
@@ -2726,10 +2726,10 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>4.615696569020522</v>
+        <v>4.631670802777651</v>
       </c>
       <c r="C215" t="n">
-        <v>9.097204301403208e-37</v>
+        <v>6.028093721845748e-37</v>
       </c>
     </row>
     <row r="216">
@@ -2737,10 +2737,10 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>4.619038817499749</v>
+        <v>4.64049776670997</v>
       </c>
       <c r="C216" t="n">
-        <v>7.52625700006066e-37</v>
+        <v>5.094563908874485e-37</v>
       </c>
     </row>
     <row r="217">
@@ -2748,10 +2748,10 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>4.621798314962087</v>
+        <v>4.649667525358106</v>
       </c>
       <c r="C217" t="n">
-        <v>6.63572625902998e-37</v>
+        <v>5.330667415829396e-37</v>
       </c>
     </row>
     <row r="218">
@@ -2759,10 +2759,10 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>4.630650988498092</v>
+        <v>4.658494489290425</v>
       </c>
       <c r="C218" t="n">
-        <v>5.577405798917334e-37</v>
+        <v>4.615371215978751e-37</v>
       </c>
     </row>
     <row r="219">
@@ -2770,10 +2770,10 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>4.639795037542543</v>
+        <v>4.667921343975426</v>
       </c>
       <c r="C219" t="n">
-        <v>5.926004329653496e-37</v>
+        <v>4.415525478010976e-37</v>
       </c>
     </row>
     <row r="220">
@@ -2781,32 +2781,10 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>4.64860486173907</v>
+        <v>4.671263592454653</v>
       </c>
       <c r="C220" t="n">
-        <v>5.101326492383512e-37</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>4.658074565763548</v>
-      </c>
-      <c r="C221" t="n">
-        <v>4.923608029061636e-37</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>4.661373964903298</v>
-      </c>
-      <c r="C222" t="n">
-        <v>5.363947995700133e-37</v>
+        <v>4.82429678087977e-37</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p2/p2IntegrandDataPoints0.700000.xlsx
+++ b/legendre_out/DATA/p2/p2IntegrandDataPoints0.700000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>7.164655289336605e-29</v>
+        <v>7.035960751296545e-29</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.43865949305135</v>
       </c>
       <c r="C3" t="n">
-        <v>1.037971657608412e-28</v>
+        <v>1.038870627146214e-28</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.440287767951486</v>
       </c>
       <c r="C4" t="n">
-        <v>1.207218849366868e-28</v>
+        <v>1.183555591428915e-28</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.443801413788623</v>
       </c>
       <c r="C5" t="n">
-        <v>1.60377885658007e-28</v>
+        <v>1.585714796864674e-28</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.445601086046668</v>
       </c>
       <c r="C6" t="n">
-        <v>1.662992388899325e-28</v>
+        <v>1.679545771946873e-28</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.446372374157259</v>
       </c>
       <c r="C7" t="n">
-        <v>1.653930967183012e-28</v>
+        <v>1.67651432325708e-28</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.450743006783942</v>
       </c>
       <c r="C8" t="n">
-        <v>1.762372866623018e-28</v>
+        <v>1.748369533228867e-28</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.454170953942123</v>
       </c>
       <c r="C9" t="n">
-        <v>1.633861660990473e-28</v>
+        <v>1.626474309074371e-28</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.454856543373759</v>
       </c>
       <c r="C10" t="n">
-        <v>1.474923156218559e-28</v>
+        <v>1.483103690996391e-28</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.459227176000442</v>
       </c>
       <c r="C11" t="n">
-        <v>1.365954690976349e-28</v>
+        <v>1.392135073577655e-28</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.463512109948169</v>
       </c>
       <c r="C12" t="n">
-        <v>1.089945932526338e-28</v>
+        <v>1.094897248730083e-28</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C13" t="n">
-        <v>7.745470070600487e-29</v>
+        <v>8.004966805680654e-29</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C14" t="n">
-        <v>1.796061331543594e-30</v>
+        <v>1.806947910144575e-30</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.687271360698501</v>
       </c>
       <c r="C15" t="n">
-        <v>2.428924151466214e-30</v>
+        <v>2.436752961944582e-30</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.689071032956547</v>
       </c>
       <c r="C16" t="n">
-        <v>2.758470761343461e-30</v>
+        <v>2.811990671805552e-30</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.689928019746092</v>
       </c>
       <c r="C17" t="n">
-        <v>3.212066072775663e-30</v>
+        <v>3.167896403072759e-30</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.690699307856684</v>
       </c>
       <c r="C18" t="n">
-        <v>3.817722894411624e-30</v>
+        <v>3.842505451825856e-30</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.691641993325183</v>
       </c>
       <c r="C19" t="n">
-        <v>4.219862914687492e-30</v>
+        <v>4.2070887526776e-30</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.692498980114729</v>
       </c>
       <c r="C20" t="n">
-        <v>6.29902447533286e-30</v>
+        <v>6.321312523041505e-30</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.693270268225319</v>
       </c>
       <c r="C21" t="n">
-        <v>1.780861028218597e-29</v>
+        <v>1.780469633491928e-29</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.694127255014865</v>
       </c>
       <c r="C22" t="n">
-        <v>2.774635361076201e-29</v>
+        <v>2.791206341560305e-29</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.695841228593956</v>
       </c>
       <c r="C23" t="n">
-        <v>4.041494705662234e-29</v>
+        <v>4.052734182726331e-29</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.697555202173048</v>
       </c>
       <c r="C24" t="n">
-        <v>3.979841795073914e-29</v>
+        <v>3.970536747100858e-29</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.699354874431093</v>
       </c>
       <c r="C25" t="n">
-        <v>3.592996889155733e-29</v>
+        <v>3.592908929413028e-29</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.701068848010184</v>
       </c>
       <c r="C26" t="n">
-        <v>3.320900407682221e-29</v>
+        <v>3.324584791853357e-29</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.70286852026823</v>
       </c>
       <c r="C27" t="n">
-        <v>3.240420083458264e-29</v>
+        <v>3.235146471045692e-29</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.703468411020912</v>
       </c>
       <c r="C28" t="n">
-        <v>3.259790635181986e-29</v>
+        <v>3.270023405235107e-29</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.704496795168366</v>
       </c>
       <c r="C29" t="n">
-        <v>3.091221899916893e-29</v>
+        <v>3.093233646428034e-29</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.706125070068503</v>
       </c>
       <c r="C30" t="n">
-        <v>3.039394493311537e-29</v>
+        <v>3.034319741621992e-29</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.707839043647593</v>
       </c>
       <c r="C31" t="n">
-        <v>2.942328667955402e-29</v>
+        <v>2.933120757784267e-29</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.709638715905639</v>
       </c>
       <c r="C32" t="n">
-        <v>2.774736256822483e-29</v>
+        <v>2.783174366385044e-29</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.71135268948473</v>
       </c>
       <c r="C33" t="n">
-        <v>2.633157719801487e-29</v>
+        <v>2.624993431075339e-29</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.713066663063821</v>
       </c>
       <c r="C34" t="n">
-        <v>2.385495321421222e-29</v>
+        <v>2.389596283849921e-29</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.714609239285003</v>
       </c>
       <c r="C35" t="n">
-        <v>2.116486528604399e-29</v>
+        <v>2.119268717905871e-29</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.716494610222004</v>
       </c>
       <c r="C36" t="n">
-        <v>1.667829520097387e-29</v>
+        <v>1.662794453188216e-29</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.718122885122139</v>
       </c>
       <c r="C37" t="n">
-        <v>1.295527541360936e-29</v>
+        <v>1.29626590135641e-29</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.719836858701231</v>
       </c>
       <c r="C38" t="n">
-        <v>8.473382514761372e-30</v>
+        <v>8.548461010051382e-30</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.720693845490776</v>
       </c>
       <c r="C39" t="n">
-        <v>1.18241629617005e-29</v>
+        <v>1.189692963018943e-29</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.721636530959276</v>
       </c>
       <c r="C40" t="n">
-        <v>5.819944140470532e-30</v>
+        <v>5.870441567177237e-30</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.723350504538367</v>
       </c>
       <c r="C41" t="n">
-        <v>3.845157795540259e-30</v>
+        <v>3.834762191322827e-30</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.725064478117458</v>
       </c>
       <c r="C42" t="n">
-        <v>2.857705512094025e-30</v>
+        <v>2.848802145391412e-30</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.729178014707276</v>
       </c>
       <c r="C43" t="n">
-        <v>1.622109724855974e-30</v>
+        <v>1.610131116298906e-30</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.73337724997605</v>
       </c>
       <c r="C44" t="n">
-        <v>1.344152855448077e-30</v>
+        <v>1.338365057772544e-30</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.737747882602732</v>
       </c>
       <c r="C45" t="n">
-        <v>1.194645460106622e-30</v>
+        <v>1.167044584688152e-30</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C46" t="n">
-        <v>9.865635146025924e-31</v>
+        <v>9.586571492851533e-31</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.772113052863507</v>
       </c>
       <c r="C47" t="n">
-        <v>9.490163647826759e-31</v>
+        <v>9.532510859850271e-31</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.789167089975462</v>
       </c>
       <c r="C48" t="n">
-        <v>9.906646673717833e-31</v>
+        <v>9.733944388423785e-31</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.797908355228826</v>
       </c>
       <c r="C49" t="n">
-        <v>1.2443045262473e-30</v>
+        <v>1.247194876099567e-30</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.806478223124282</v>
       </c>
       <c r="C50" t="n">
-        <v>1.357524388039434e-30</v>
+        <v>1.351131007192613e-30</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.814876693661827</v>
       </c>
       <c r="C51" t="n">
-        <v>2.224078012516619e-30</v>
+        <v>2.240066721917667e-30</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.823360862878328</v>
       </c>
       <c r="C52" t="n">
-        <v>3.039090136362533e-30</v>
+        <v>3.04260050232837e-30</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.82773149550501</v>
       </c>
       <c r="C53" t="n">
-        <v>6.629375496211568e-30</v>
+        <v>6.643864149744821e-30</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.832102128131692</v>
       </c>
       <c r="C54" t="n">
-        <v>9.235347170827345e-30</v>
+        <v>9.236546437133728e-30</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.840586297348192</v>
       </c>
       <c r="C55" t="n">
-        <v>8.479475208466274e-30</v>
+        <v>8.491536156369834e-30</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.847442191664556</v>
       </c>
       <c r="C56" t="n">
-        <v>5.590690338488897e-30</v>
+        <v>5.59576481454947e-30</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.854383784659876</v>
       </c>
       <c r="C57" t="n">
-        <v>2.372188699459718e-30</v>
+        <v>2.374983333124423e-30</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.856183456917921</v>
       </c>
       <c r="C58" t="n">
-        <v>1.694861987981989e-30</v>
+        <v>1.709674323548954e-30</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.857811731818057</v>
       </c>
       <c r="C59" t="n">
-        <v>2.202805471352335e-30</v>
+        <v>2.202910833395848e-30</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.859611404076103</v>
       </c>
       <c r="C60" t="n">
-        <v>8.257591003832155e-31</v>
+        <v>8.196752337270588e-31</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.86201096708683</v>
       </c>
       <c r="C61" t="n">
-        <v>5.312561763365962e-31</v>
+        <v>5.277073428237685e-31</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.866295901034558</v>
       </c>
       <c r="C62" t="n">
-        <v>2.814754136133707e-31</v>
+        <v>2.802809117523587e-31</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.875037166287922</v>
       </c>
       <c r="C63" t="n">
-        <v>1.831634301629714e-31</v>
+        <v>1.846068413733091e-31</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.876751139867013</v>
       </c>
       <c r="C64" t="n">
-        <v>4.000642570127896e-31</v>
+        <v>4.06344064637334e-31</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.879236401556695</v>
       </c>
       <c r="C65" t="n">
-        <v>1.139069996070976e-30</v>
+        <v>1.13947205593962e-30</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.883521335504422</v>
       </c>
       <c r="C66" t="n">
-        <v>1.852826751759053e-30</v>
+        <v>1.85958328074887e-30</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.887891968131104</v>
       </c>
       <c r="C67" t="n">
-        <v>3.141863241905478e-30</v>
+        <v>3.141407021523286e-30</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.891491312647195</v>
       </c>
       <c r="C68" t="n">
-        <v>2.965010721504389e-30</v>
+        <v>2.967528770052389e-30</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.896376137347605</v>
       </c>
       <c r="C69" t="n">
-        <v>4.752911628236736e-30</v>
+        <v>4.765461903130464e-30</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.900746769974288</v>
       </c>
       <c r="C70" t="n">
-        <v>4.912690000655593e-30</v>
+        <v>4.940245609015638e-30</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.908973843153924</v>
       </c>
       <c r="C71" t="n">
-        <v>5.549806038527207e-30</v>
+        <v>5.557534467211271e-30</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.917886505765197</v>
       </c>
       <c r="C72" t="n">
-        <v>7.259481326254264e-30</v>
+        <v>7.280913536793959e-30</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.926370674981698</v>
       </c>
       <c r="C73" t="n">
-        <v>5.830163222187821e-30</v>
+        <v>5.84089854329322e-30</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.934854844198199</v>
       </c>
       <c r="C74" t="n">
-        <v>2.588530911228436e-30</v>
+        <v>2.587025071286168e-30</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.943510410772608</v>
       </c>
       <c r="C75" t="n">
-        <v>1.203408389458789e-30</v>
+        <v>1.203313313090195e-30</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.952251676025972</v>
       </c>
       <c r="C76" t="n">
-        <v>8.439198493372906e-31</v>
+        <v>8.46899700594494e-31</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.960564447884564</v>
       </c>
       <c r="C77" t="n">
-        <v>1.663706218408824e-30</v>
+        <v>1.65937834771379e-30</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.969305713137928</v>
       </c>
       <c r="C78" t="n">
-        <v>1.622553908883046e-30</v>
+        <v>1.620859362956568e-30</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.977618484996519</v>
       </c>
       <c r="C79" t="n">
-        <v>1.029922546674622e-30</v>
+        <v>1.031455981161039e-30</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.982160514981111</v>
       </c>
       <c r="C80" t="n">
-        <v>5.070938586900397e-31</v>
+        <v>5.069194286008961e-31</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.986274051570929</v>
       </c>
       <c r="C81" t="n">
-        <v>2.798682961878507e-31</v>
+        <v>2.818407496132853e-31</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.994843919466384</v>
       </c>
       <c r="C82" t="n">
-        <v>2.01026281294019e-31</v>
+        <v>2.019124522907986e-31</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>4.012069353936249</v>
       </c>
       <c r="C83" t="n">
-        <v>7.963356478143308e-32</v>
+        <v>7.941709490096501e-32</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>4.020724920510658</v>
       </c>
       <c r="C84" t="n">
-        <v>3.635730674325514e-32</v>
+        <v>3.567642105014658e-32</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>4.02903769236925</v>
       </c>
       <c r="C85" t="n">
-        <v>2.4220768250992e-32</v>
+        <v>2.399529423981734e-32</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>4.046263126839114</v>
       </c>
       <c r="C86" t="n">
-        <v>1.460203558830606e-32</v>
+        <v>1.439384622650986e-32</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>4.063402862630025</v>
       </c>
       <c r="C87" t="n">
-        <v>1.024576275092091e-32</v>
+        <v>1.014719558013966e-32</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>4.080542598420934</v>
       </c>
       <c r="C88" t="n">
-        <v>1.049185436581328e-32</v>
+        <v>1.048482607441051e-32</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>4.084998929726572</v>
       </c>
       <c r="C89" t="n">
-        <v>1.752035274553042e-32</v>
+        <v>1.751990892727358e-32</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>4.08816978084789</v>
       </c>
       <c r="C90" t="n">
-        <v>1.891419113128233e-32</v>
+        <v>1.901868091058272e-32</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>4.097682334211846</v>
       </c>
       <c r="C91" t="n">
-        <v>1.97329117226402e-32</v>
+        <v>1.980500111240217e-32</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>4.101967268159573</v>
       </c>
       <c r="C92" t="n">
-        <v>2.789544832226748e-32</v>
+        <v>2.79441487492983e-32</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>4.106423599465209</v>
       </c>
       <c r="C93" t="n">
-        <v>5.505093119854541e-32</v>
+        <v>5.507778002699254e-32</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>4.114907768681709</v>
       </c>
       <c r="C94" t="n">
-        <v>5.966569847718537e-32</v>
+        <v>5.97285272331336e-32</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>4.123306239219255</v>
       </c>
       <c r="C95" t="n">
-        <v>4.299563280960764e-32</v>
+        <v>4.297254305801867e-32</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>4.131961805793665</v>
       </c>
       <c r="C96" t="n">
-        <v>1.792428853072697e-32</v>
+        <v>1.787496303510661e-32</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>4.133847176730665</v>
       </c>
       <c r="C97" t="n">
-        <v>8.346431059376298e-33</v>
+        <v>8.351677462871338e-33</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>4.136503835778257</v>
       </c>
       <c r="C98" t="n">
-        <v>4.945621360131908e-33</v>
+        <v>4.954051605958945e-33</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>4.140617372368075</v>
       </c>
       <c r="C99" t="n">
-        <v>2.540465121865929e-33</v>
+        <v>2.549471916549439e-33</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>4.149015842905621</v>
       </c>
       <c r="C100" t="n">
-        <v>1.433693025180324e-33</v>
+        <v>1.412211149416949e-33</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>4.166241277375486</v>
       </c>
       <c r="C101" t="n">
-        <v>7.457275840909848e-34</v>
+        <v>7.325057326456493e-34</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>4.180210162045077</v>
       </c>
       <c r="C102" t="n">
-        <v>5.739698715257355e-34</v>
+        <v>5.879580535196286e-34</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>4.200435050278351</v>
       </c>
       <c r="C103" t="n">
-        <v>4.980397698655151e-34</v>
+        <v>4.903270743509237e-34</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>4.209004918173807</v>
       </c>
       <c r="C104" t="n">
-        <v>8.17170355240995e-34</v>
+        <v>8.275378335494749e-34</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>4.21774618342717</v>
       </c>
       <c r="C105" t="n">
-        <v>1.011249897456337e-33</v>
+        <v>1.017322206659507e-33</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>4.226230352643671</v>
       </c>
       <c r="C106" t="n">
-        <v>1.124912611440593e-33</v>
+        <v>1.140714630282113e-33</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>4.231543670738853</v>
       </c>
       <c r="C107" t="n">
-        <v>1.047346680807243e-33</v>
+        <v>1.056428694865445e-33</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>4.234971617897036</v>
       </c>
       <c r="C108" t="n">
-        <v>1.001928528869582e-33</v>
+        <v>1.003769788273793e-33</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>4.24071342938699</v>
       </c>
       <c r="C109" t="n">
-        <v>8.755111262465879e-34</v>
+        <v>8.80255093601744e-34</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>4.249111899924536</v>
       </c>
       <c r="C110" t="n">
-        <v>7.884981792930877e-34</v>
+        <v>7.902354529856228e-34</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>4.2521970523669</v>
       </c>
       <c r="C111" t="n">
-        <v>7.601433505602061e-34</v>
+        <v>7.5191738410956e-34</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>4.257767466498946</v>
       </c>
       <c r="C112" t="n">
-        <v>7.328833891560304e-34</v>
+        <v>7.56758815232113e-34</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>4.262138099125628</v>
       </c>
       <c r="C113" t="n">
-        <v>7.135787914405679e-34</v>
+        <v>7.395299197608445e-34</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>4.264537662136355</v>
       </c>
       <c r="C114" t="n">
-        <v>7.333104478061203e-34</v>
+        <v>7.585885895351605e-34</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>4.267280019862901</v>
       </c>
       <c r="C115" t="n">
-        <v>7.098302951227866e-34</v>
+        <v>7.257795587372671e-34</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>4.269079692120946</v>
       </c>
       <c r="C116" t="n">
-        <v>7.077821790924426e-34</v>
+        <v>7.133381927623276e-34</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>4.271479255131674</v>
       </c>
       <c r="C117" t="n">
-        <v>6.620343875347785e-34</v>
+        <v>6.801883272474115e-34</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>4.273021831352856</v>
       </c>
       <c r="C118" t="n">
-        <v>6.44292009763166e-34</v>
+        <v>6.643728989043244e-34</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>4.281677397927266</v>
       </c>
       <c r="C119" t="n">
-        <v>4.64794220609649e-34</v>
+        <v>4.859467784527517e-34</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>4.286305126590811</v>
       </c>
       <c r="C120" t="n">
-        <v>4.230778217138243e-34</v>
+        <v>4.246764414030501e-34</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>4.29024726582272</v>
       </c>
       <c r="C121" t="n">
-        <v>3.158646257460967e-34</v>
+        <v>3.237324673427868e-34</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>4.298731435039221</v>
       </c>
       <c r="C122" t="n">
-        <v>2.203679715650136e-34</v>
+        <v>2.266817493367663e-34</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>4.303359163702766</v>
       </c>
       <c r="C123" t="n">
-        <v>2.171312370718931e-34</v>
+        <v>2.167127487334425e-34</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>4.307472700292585</v>
       </c>
       <c r="C124" t="n">
-        <v>2.57324072968277e-34</v>
+        <v>2.648448110354588e-34</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>4.309957961982268</v>
       </c>
       <c r="C125" t="n">
-        <v>3.362192014200004e-34</v>
+        <v>3.462325594798101e-34</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>4.310129359340176</v>
       </c>
       <c r="C126" t="n">
-        <v>3.240037806150396e-34</v>
+        <v>3.334353899872093e-34</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>4.311757634240313</v>
       </c>
       <c r="C127" t="n">
-        <v>5.094257637881723e-34</v>
+        <v>5.252315972359557e-34</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>4.31604256818804</v>
       </c>
       <c r="C128" t="n">
-        <v>8.779010340857815e-34</v>
+        <v>9.000903139067421e-34</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>4.318613528556677</v>
       </c>
       <c r="C129" t="n">
-        <v>9.217538258225026e-34</v>
+        <v>9.383381664379124e-34</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>4.320584598172632</v>
       </c>
       <c r="C130" t="n">
-        <v>9.34961497945245e-34</v>
+        <v>9.39566307059088e-34</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>4.322898462504404</v>
       </c>
       <c r="C131" t="n">
-        <v>1.026626438213629e-33</v>
+        <v>1.048144535082856e-33</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>4.325555121551995</v>
       </c>
       <c r="C132" t="n">
-        <v>1.123965969992589e-33</v>
+        <v>1.147991015260741e-33</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>4.327954684562723</v>
       </c>
       <c r="C133" t="n">
-        <v>1.136177736565447e-33</v>
+        <v>1.158853705097506e-33</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>4.330782740968223</v>
       </c>
       <c r="C134" t="n">
-        <v>1.0480064072543e-33</v>
+        <v>1.061707592086436e-33</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>4.33318230397895</v>
       </c>
       <c r="C135" t="n">
-        <v>9.189053664653261e-34</v>
+        <v>9.342580530942243e-34</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>4.337638635284587</v>
       </c>
       <c r="C136" t="n">
-        <v>6.843486180036912e-34</v>
+        <v>6.865974170500502e-34</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>4.341752171874406</v>
       </c>
       <c r="C137" t="n">
-        <v>4.54790614711101e-34</v>
+        <v>4.668263239965912e-34</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>4.350407738448815</v>
       </c>
       <c r="C138" t="n">
-        <v>2.671043408211536e-34</v>
+        <v>2.713985827849035e-34</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>4.354692672396543</v>
       </c>
       <c r="C139" t="n">
-        <v>2.018537651970377e-34</v>
+        <v>2.040872631018031e-34</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>4.358634811628452</v>
       </c>
       <c r="C140" t="n">
-        <v>1.545538723906546e-34</v>
+        <v>1.565910935006906e-34</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>4.366947583487043</v>
       </c>
       <c r="C141" t="n">
-        <v>1.1394316872931e-34</v>
+        <v>1.159688855057894e-34</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>4.371918106866407</v>
       </c>
       <c r="C142" t="n">
-        <v>1.165997187658159e-34</v>
+        <v>1.1722164070813e-34</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>4.375088957987725</v>
       </c>
       <c r="C143" t="n">
-        <v>4.156817991928125e-34</v>
+        <v>4.206186332110887e-34</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>4.377745617035317</v>
       </c>
       <c r="C144" t="n">
-        <v>7.535155585083643e-34</v>
+        <v>7.6132280947675e-34</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>4.379545289293363</v>
       </c>
       <c r="C145" t="n">
-        <v>8.130182063785969e-34</v>
+        <v>8.174304069384995e-34</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>4.380487974761863</v>
       </c>
       <c r="C146" t="n">
-        <v>8.433392950665399e-34</v>
+        <v>8.514529201135992e-34</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>4.380830769477681</v>
       </c>
       <c r="C147" t="n">
-        <v>8.21244427925237e-34</v>
+        <v>8.265937514841702e-34</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>4.381087865514544</v>
       </c>
       <c r="C148" t="n">
-        <v>8.161724623091905e-34</v>
+        <v>8.188633270338656e-34</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>4.382973236451544</v>
       </c>
       <c r="C149" t="n">
-        <v>9.785207879659909e-34</v>
+        <v>9.808816421170063e-34</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>4.384687210030635</v>
       </c>
       <c r="C150" t="n">
-        <v>9.948014741835854e-34</v>
+        <v>9.96346823725216e-34</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>4.386401183609727</v>
       </c>
       <c r="C151" t="n">
-        <v>9.648131288314833e-34</v>
+        <v>9.696585521839475e-34</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>4.388029458509863</v>
       </c>
       <c r="C152" t="n">
-        <v>9.518275442223502e-34</v>
+        <v>9.556680608021816e-34</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>4.389057842657317</v>
       </c>
       <c r="C153" t="n">
-        <v>9.45636612426903e-34</v>
+        <v>9.441204273727035e-34</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>4.389743432088954</v>
       </c>
       <c r="C154" t="n">
-        <v>9.23347403282265e-34</v>
+        <v>9.27033085353576e-34</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>4.392314392457591</v>
       </c>
       <c r="C155" t="n">
-        <v>8.69557626239691e-34</v>
+        <v>8.701434850971374e-34</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>4.396599326405318</v>
       </c>
       <c r="C156" t="n">
-        <v>6.771027402834083e-34</v>
+        <v>6.786502711272823e-34</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>4.400884260353045</v>
       </c>
       <c r="C157" t="n">
-        <v>4.64694356496812e-34</v>
+        <v>4.659692061543687e-34</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>4.404912098263909</v>
       </c>
       <c r="C158" t="n">
-        <v>3.164754749311012e-34</v>
+        <v>3.175766117458444e-34</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>4.406111879769273</v>
       </c>
       <c r="C159" t="n">
-        <v>3.241636898248955e-34</v>
+        <v>3.266640446735042e-34</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>4.4094541282485</v>
       </c>
       <c r="C160" t="n">
-        <v>2.360398622625512e-34</v>
+        <v>2.384094223194884e-34</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>4.413824760875183</v>
       </c>
       <c r="C161" t="n">
-        <v>2.196561415407377e-34</v>
+        <v>2.222714123857432e-34</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>4.41622432388591</v>
       </c>
       <c r="C162" t="n">
-        <v>2.045487673332641e-34</v>
+        <v>2.045834631767742e-34</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>4.418795284254546</v>
       </c>
       <c r="C163" t="n">
-        <v>1.799653388216982e-34</v>
+        <v>1.811395814411256e-34</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>4.421623340660047</v>
       </c>
       <c r="C164" t="n">
-        <v>1.601630280929684e-34</v>
+        <v>1.600765283353995e-34</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>4.423337314239138</v>
       </c>
       <c r="C165" t="n">
-        <v>1.484479922338061e-34</v>
+        <v>1.488330507327063e-34</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>4.424194301028683</v>
       </c>
       <c r="C166" t="n">
-        <v>1.398167233660638e-34</v>
+        <v>1.40748144553682e-34</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>4.429336221765956</v>
       </c>
       <c r="C167" t="n">
-        <v>1.083771354796829e-34</v>
+        <v>1.09200496415274e-34</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>4.431392990060865</v>
       </c>
       <c r="C168" t="n">
-        <v>9.416205854173663e-35</v>
+        <v>9.450969456451916e-35</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>4.440477050030048</v>
       </c>
       <c r="C169" t="n">
-        <v>5.176061390032533e-35</v>
+        <v>5.168508047031018e-35</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>4.457445388463049</v>
       </c>
       <c r="C170" t="n">
-        <v>2.886848764331505e-35</v>
+        <v>2.897513081774644e-35</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>4.474756521611869</v>
       </c>
       <c r="C171" t="n">
-        <v>2.39069662166925e-35</v>
+        <v>2.391316993874627e-35</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>4.491896257402779</v>
       </c>
       <c r="C172" t="n">
-        <v>2.43199014904648e-35</v>
+        <v>2.439267157641598e-35</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>4.500037631903461</v>
       </c>
       <c r="C173" t="n">
-        <v>2.758865537603374e-35</v>
+        <v>2.770405668652995e-35</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>4.503122784345824</v>
       </c>
       <c r="C174" t="n">
-        <v>2.883330106444744e-35</v>
+        <v>2.880169146579102e-35</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>4.509121691872643</v>
       </c>
       <c r="C175" t="n">
-        <v>3.583063700380123e-35</v>
+        <v>3.589580847548925e-35</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>4.517520162410189</v>
       </c>
       <c r="C176" t="n">
-        <v>4.692231007774187e-35</v>
+        <v>4.691595083771586e-35</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>4.521890795036872</v>
       </c>
       <c r="C177" t="n">
-        <v>5.193296991047983e-35</v>
+        <v>5.178199726961933e-35</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>4.526175728984599</v>
       </c>
       <c r="C178" t="n">
-        <v>5.92927080270838e-35</v>
+        <v>5.920145132006908e-35</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>4.530460662932327</v>
       </c>
       <c r="C179" t="n">
-        <v>7.370895002792e-35</v>
+        <v>7.354164763112197e-35</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>4.534574199522145</v>
       </c>
       <c r="C180" t="n">
-        <v>1.035553838244548e-34</v>
+        <v>1.037110841140376e-34</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>4.539030530827781</v>
       </c>
       <c r="C181" t="n">
-        <v>1.236281461824436e-34</v>
+        <v>1.231020022705408e-34</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>4.543486862133419</v>
       </c>
       <c r="C182" t="n">
-        <v>1.496552809109376e-34</v>
+        <v>1.496274448170752e-34</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>4.545800726465191</v>
       </c>
       <c r="C183" t="n">
-        <v>1.69413575645848e-34</v>
+        <v>1.694543130221385e-34</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>4.549914263055009</v>
       </c>
       <c r="C184" t="n">
-        <v>1.542482713640675e-34</v>
+        <v>1.54616047627591e-34</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>4.551628236634101</v>
       </c>
       <c r="C185" t="n">
-        <v>1.478238595472766e-34</v>
+        <v>1.478319876187137e-34</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>4.553942100965873</v>
       </c>
       <c r="C186" t="n">
-        <v>1.337441730591945e-34</v>
+        <v>1.33702927782111e-34</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>4.558912624345237</v>
       </c>
       <c r="C187" t="n">
-        <v>1.069584130459188e-34</v>
+        <v>1.071322792196836e-34</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>4.562940462256101</v>
       </c>
       <c r="C188" t="n">
-        <v>9.512185386922847e-35</v>
+        <v>9.521014948724685e-35</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>4.56688260148801</v>
       </c>
       <c r="C189" t="n">
-        <v>7.656344004909572e-35</v>
+        <v>7.653160772004501e-35</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>4.571424631472602</v>
       </c>
       <c r="C190" t="n">
-        <v>5.653820577534289e-35</v>
+        <v>5.655512464664075e-35</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>4.575623866741375</v>
       </c>
       <c r="C191" t="n">
-        <v>4.437336854518693e-35</v>
+        <v>4.447074084339142e-35</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>4.580080198047011</v>
       </c>
       <c r="C192" t="n">
-        <v>3.090786284397966e-35</v>
+        <v>3.092628730930892e-35</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>4.58402233727892</v>
       </c>
       <c r="C193" t="n">
-        <v>1.980192270945821e-35</v>
+        <v>1.980798715740958e-35</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>4.588478668584557</v>
       </c>
       <c r="C194" t="n">
-        <v>1.135411021305984e-35</v>
+        <v>1.139919496729929e-35</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>4.588650065942466</v>
       </c>
       <c r="C195" t="n">
-        <v>1.140235552818302e-35</v>
+        <v>1.13887409346064e-35</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>4.592078013100648</v>
       </c>
       <c r="C196" t="n">
-        <v>8.140691267090587e-36</v>
+        <v>8.138022982151061e-36</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>4.593277794606012</v>
       </c>
       <c r="C197" t="n">
-        <v>7.551907336018496e-36</v>
+        <v>7.520753685466442e-36</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>4.593534890642876</v>
       </c>
       <c r="C198" t="n">
-        <v>7.065630731295972e-36</v>
+        <v>7.066147705626346e-36</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>4.596534344406285</v>
       </c>
       <c r="C199" t="n">
-        <v>1.135332010485534e-35</v>
+        <v>1.136211391946095e-35</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>4.597819824590603</v>
       </c>
       <c r="C200" t="n">
-        <v>8.584597540418304e-36</v>
+        <v>8.58102101006837e-36</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>4.601504867785649</v>
       </c>
       <c r="C201" t="n">
-        <v>1.270774360052222e-35</v>
+        <v>1.271718918913736e-35</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>4.603133142685785</v>
       </c>
       <c r="C202" t="n">
-        <v>1.174875929917609e-35</v>
+        <v>1.174166495451646e-35</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>4.604932814943831</v>
       </c>
       <c r="C203" t="n">
-        <v>1.095800969239697e-35</v>
+        <v>1.099130283381779e-35</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>4.606646788522922</v>
       </c>
       <c r="C204" t="n">
-        <v>1.053729508058201e-35</v>
+        <v>1.054004096783282e-35</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>4.608446460780968</v>
       </c>
       <c r="C205" t="n">
-        <v>1.000544802407204e-35</v>
+        <v>9.964567921841423e-36</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>4.610160434360059</v>
       </c>
       <c r="C206" t="n">
-        <v>9.23035746137626e-36</v>
+        <v>9.231064688122737e-36</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>4.611617311902286</v>
       </c>
       <c r="C207" t="n">
-        <v>9.124600584971917e-36</v>
+        <v>9.107390931635076e-36</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>4.615987944528968</v>
       </c>
       <c r="C208" t="n">
-        <v>5.0086774104478e-36</v>
+        <v>5.032490173845996e-36</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>4.620529974513559</v>
       </c>
       <c r="C209" t="n">
-        <v>2.039108809991516e-36</v>
+        <v>2.049527609722421e-36</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>4.622929537524286</v>
       </c>
       <c r="C210" t="n">
-        <v>1.259654945152385e-36</v>
+        <v>1.262109466324525e-36</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>4.623272332240105</v>
       </c>
       <c r="C211" t="n">
-        <v>1.753883188112605e-36</v>
+        <v>1.760449741622404e-36</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>4.623786524313832</v>
       </c>
       <c r="C212" t="n">
-        <v>1.093913042551247e-36</v>
+        <v>1.08544261408273e-36</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>4.625586196571877</v>
       </c>
       <c r="C213" t="n">
-        <v>8.21173084486852e-37</v>
+        <v>8.181565972961524e-37</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>4.628928445051105</v>
       </c>
       <c r="C214" t="n">
-        <v>6.763564030700744e-37</v>
+        <v>6.735170426180785e-37</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>4.631670802777651</v>
       </c>
       <c r="C215" t="n">
-        <v>6.028093721845748e-37</v>
+        <v>6.019990396686978e-37</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>4.64049776670997</v>
       </c>
       <c r="C216" t="n">
-        <v>5.094563908874485e-37</v>
+        <v>5.196704972970616e-37</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>4.649667525358106</v>
       </c>
       <c r="C217" t="n">
-        <v>5.330667415829396e-37</v>
+        <v>5.267409862458872e-37</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>4.658494489290425</v>
       </c>
       <c r="C218" t="n">
-        <v>4.615371215978751e-37</v>
+        <v>4.640204774415506e-37</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>4.667921343975426</v>
       </c>
       <c r="C219" t="n">
-        <v>4.415525478010976e-37</v>
+        <v>4.414432747168436e-37</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C220" t="n">
-        <v>4.82429678087977e-37</v>
+        <v>4.842438356822247e-37</v>
       </c>
     </row>
   </sheetData>
